--- a/PPM10_TestData_Create a Financial Project_21B.xlsx
+++ b/PPM10_TestData_Create a Financial Project_21B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30714FDF-EE2E-45A2-8315-BA02589F1F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3CDF7C-589F-46C0-8A88-ADB251863DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{7B660B18-6AD7-45EE-A5DE-8973734DB4E0}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{7B660B18-6AD7-45EE-A5DE-8973734DB4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>userid</t>
   </si>
   <si>
-    <t>IBM_IMPLEMENTATION_USER</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
     <t>Watson Enterprises United States</t>
   </si>
   <si>
-    <t>Oracle1234</t>
-  </si>
-  <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>https://edrx.fa.us2.oraclecloud.com</t>
   </si>
   <si>
     <t>BusinessUnit</t>
@@ -594,83 +585,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9EF5B2-6E6B-41EA-8C9B-9D41C8BB58FC}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S2" sqref="Q2:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625"/>
-    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.90625" customWidth="1"/>
-    <col min="13" max="13" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.26953125" customWidth="1"/>
-    <col min="17" max="17" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="17" max="17" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -696,53 +687,42 @@
         <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q2" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="https://edrx.fa.us2.oraclecloud.com/" xr:uid="{AB3F26A8-AA4B-4DA7-ACCF-81209A9EC778}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -752,7 +732,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
